--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -25,7 +25,7 @@
     <t>email</t>
   </si>
   <si>
-    <t>password_hash</t>
+    <t>password</t>
   </si>
   <si>
     <t>steam_url</t>
@@ -38,15 +38,6 @@
   </si>
   <si>
     <t>last_login</t>
-  </si>
-  <si>
-    <t>alhnesn</t>
-  </si>
-  <si>
-    <t>Alihan Esen</t>
-  </si>
-  <si>
-    <t>alihanesen2004@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -332,20 +323,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
